--- a/测试单-电子书_daisy_170419.xlsx
+++ b/测试单-电子书_daisy_170419.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550" tabRatio="784" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="364">
   <si>
     <t>编号</t>
   </si>
@@ -2334,6 +2334,14 @@
       <t xml:space="preserve">
 （2）闪烁一下主菜单是因为我们的风格是透明的，这个无法修改，否则就是黑屏。=》无法修改，遗留</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7668,13 +7676,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
+      <selection pane="bottomRight" activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7693,7 +7702,7 @@
     <col min="13" max="13" width="5.625" style="86" customWidth="1"/>
     <col min="14" max="14" width="7.625" style="86" customWidth="1"/>
     <col min="15" max="15" width="37.375" style="87" customWidth="1"/>
-    <col min="16" max="16" width="9.375" style="86" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="86" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" style="86"/>
     <col min="20" max="20" width="9.25" style="86" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="86"/>
@@ -7762,7 +7771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="131" customFormat="1" ht="54">
+    <row r="3" spans="1:20" s="131" customFormat="1" ht="54" hidden="1">
       <c r="A3" s="82">
         <v>1</v>
       </c>
@@ -7807,7 +7816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="114" customFormat="1" ht="135">
+    <row r="4" spans="1:20" s="114" customFormat="1" ht="135" hidden="1">
       <c r="A4" s="82">
         <v>2</v>
       </c>
@@ -7854,7 +7863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="114" customFormat="1" ht="27">
+    <row r="5" spans="1:20" s="114" customFormat="1" ht="27" hidden="1">
       <c r="A5" s="82">
         <v>3</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="114" customFormat="1" ht="27">
+    <row r="6" spans="1:20" s="114" customFormat="1" ht="27" hidden="1">
       <c r="A6" s="82">
         <v>4</v>
       </c>
@@ -7938,7 +7947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="114" customFormat="1" ht="27">
+    <row r="7" spans="1:20" s="114" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="82">
         <v>5</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="114" customFormat="1" ht="40.5">
+    <row r="8" spans="1:20" s="114" customFormat="1" ht="40.5" hidden="1">
       <c r="A8" s="82">
         <v>6</v>
       </c>
@@ -8028,7 +8037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="114" customFormat="1" ht="81">
+    <row r="9" spans="1:20" s="114" customFormat="1" ht="81" hidden="1">
       <c r="A9" s="82">
         <v>7</v>
       </c>
@@ -8072,7 +8081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="116" customFormat="1" ht="40.5">
+    <row r="10" spans="1:20" s="116" customFormat="1" ht="40.5" hidden="1">
       <c r="A10" s="82">
         <v>8</v>
       </c>
@@ -8113,7 +8122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="133" customFormat="1">
+    <row r="11" spans="1:20" s="133" customFormat="1" hidden="1">
       <c r="A11" s="82">
         <v>9</v>
       </c>
@@ -8185,7 +8194,7 @@
       </c>
       <c r="T12" s="145"/>
     </row>
-    <row r="13" spans="1:20" s="120" customFormat="1" ht="27">
+    <row r="13" spans="1:20" s="120" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="82">
         <v>11</v>
       </c>
@@ -8226,7 +8235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="133" customFormat="1" ht="40.5">
+    <row r="14" spans="1:20" s="133" customFormat="1" ht="40.5" hidden="1">
       <c r="A14" s="82">
         <v>12</v>
       </c>
@@ -8312,7 +8321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="61" customFormat="1" ht="189">
+    <row r="16" spans="1:20" s="61" customFormat="1" ht="189" hidden="1">
       <c r="A16" s="82">
         <v>14</v>
       </c>
@@ -8358,7 +8367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="120" customFormat="1" ht="54">
+    <row r="17" spans="1:17" s="120" customFormat="1" ht="54" hidden="1">
       <c r="A17" s="82">
         <v>15</v>
       </c>
@@ -8397,7 +8406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="74" customFormat="1" ht="54">
+    <row r="18" spans="1:17" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A18" s="82">
         <v>16</v>
       </c>
@@ -8431,7 +8440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="74" customFormat="1" ht="54">
+    <row r="19" spans="1:17" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A19" s="82">
         <v>17</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="74" customFormat="1" ht="54">
+    <row r="20" spans="1:17" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A20" s="82">
         <v>18</v>
       </c>
@@ -8514,7 +8523,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="74" customFormat="1" ht="67.5">
+    <row r="21" spans="1:17" s="74" customFormat="1" ht="67.5" hidden="1">
       <c r="A21" s="82">
         <v>19</v>
       </c>
@@ -8555,7 +8564,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="74" customFormat="1" ht="54">
+    <row r="22" spans="1:17" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A22" s="82">
         <v>20</v>
       </c>
@@ -8598,7 +8607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="74" customFormat="1" ht="67.5">
+    <row r="23" spans="1:17" s="74" customFormat="1" ht="67.5" hidden="1">
       <c r="A23" s="82">
         <v>21</v>
       </c>
@@ -8632,7 +8641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="74" customFormat="1" ht="27">
+    <row r="24" spans="1:17" s="74" customFormat="1" ht="27" hidden="1">
       <c r="A24" s="82">
         <v>22</v>
       </c>
@@ -8677,7 +8686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="74" customFormat="1" ht="81">
+    <row r="25" spans="1:17" s="74" customFormat="1" ht="81" hidden="1">
       <c r="A25" s="82">
         <v>23</v>
       </c>
@@ -8720,7 +8729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="74" customFormat="1" ht="40.5">
+    <row r="26" spans="1:17" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A26" s="82">
         <v>24</v>
       </c>
@@ -8762,7 +8771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="74" customFormat="1" ht="40.5">
+    <row r="27" spans="1:17" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A27" s="82">
         <v>25</v>
       </c>
@@ -8806,7 +8815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="74" customFormat="1" ht="54">
+    <row r="28" spans="1:17" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A28" s="82">
         <v>26</v>
       </c>
@@ -8842,7 +8851,7 @@
       <c r="P28" s="72"/>
       <c r="Q28" s="70"/>
     </row>
-    <row r="29" spans="1:17" s="74" customFormat="1" ht="81">
+    <row r="29" spans="1:17" s="74" customFormat="1" ht="81" hidden="1">
       <c r="A29" s="82">
         <v>27</v>
       </c>
@@ -8880,7 +8889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="74" customFormat="1" ht="94.5">
+    <row r="30" spans="1:17" s="74" customFormat="1" ht="94.5" hidden="1">
       <c r="A30" s="82">
         <v>28</v>
       </c>
@@ -8918,7 +8927,7 @@
       <c r="P30" s="72"/>
       <c r="Q30" s="70"/>
     </row>
-    <row r="31" spans="1:17" s="74" customFormat="1" ht="81">
+    <row r="31" spans="1:17" s="74" customFormat="1" ht="81" hidden="1">
       <c r="A31" s="82">
         <v>29</v>
       </c>
@@ -8954,7 +8963,7 @@
       <c r="P31" s="72"/>
       <c r="Q31" s="70"/>
     </row>
-    <row r="32" spans="1:17" s="74" customFormat="1" ht="121.5">
+    <row r="32" spans="1:17" s="74" customFormat="1" ht="121.5" hidden="1">
       <c r="A32" s="82">
         <v>30</v>
       </c>
@@ -8998,7 +9007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="74" customFormat="1" ht="94.5">
+    <row r="33" spans="1:20" s="74" customFormat="1" ht="94.5" hidden="1">
       <c r="A33" s="82">
         <v>31</v>
       </c>
@@ -9036,7 +9045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="74" customFormat="1" ht="81">
+    <row r="34" spans="1:20" s="74" customFormat="1" ht="81" hidden="1">
       <c r="A34" s="82">
         <v>32</v>
       </c>
@@ -9079,7 +9088,7 @@
       </c>
       <c r="T34" s="72"/>
     </row>
-    <row r="35" spans="1:20" s="74" customFormat="1" ht="54">
+    <row r="35" spans="1:20" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A35" s="82">
         <v>33</v>
       </c>
@@ -9122,7 +9131,7 @@
       </c>
       <c r="T35" s="72"/>
     </row>
-    <row r="36" spans="1:20" s="74" customFormat="1" ht="94.5">
+    <row r="36" spans="1:20" s="74" customFormat="1" ht="94.5" hidden="1">
       <c r="A36" s="82">
         <v>34</v>
       </c>
@@ -9165,7 +9174,7 @@
       </c>
       <c r="T36" s="72"/>
     </row>
-    <row r="37" spans="1:20" s="78" customFormat="1" ht="81">
+    <row r="37" spans="1:20" s="78" customFormat="1" ht="81" hidden="1">
       <c r="A37" s="82">
         <v>35</v>
       </c>
@@ -9203,7 +9212,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="108">
+    <row r="38" spans="1:20" ht="108" hidden="1">
       <c r="A38" s="82">
         <v>36</v>
       </c>
@@ -9243,7 +9252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="82" customFormat="1">
+    <row r="39" spans="1:20" s="82" customFormat="1" hidden="1">
       <c r="A39" s="82">
         <v>37</v>
       </c>
@@ -9287,7 +9296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="74" customFormat="1" ht="54">
+    <row r="40" spans="1:20" s="74" customFormat="1" ht="54" hidden="1">
       <c r="A40" s="82">
         <v>38</v>
       </c>
@@ -9331,7 +9340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="78" customFormat="1" ht="27">
+    <row r="41" spans="1:20" s="78" customFormat="1" ht="27" hidden="1">
       <c r="A41" s="82">
         <v>39</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="62" customFormat="1" ht="94.5">
+    <row r="42" spans="1:20" s="62" customFormat="1" ht="94.5" hidden="1">
       <c r="A42" s="82">
         <v>40</v>
       </c>
@@ -9418,7 +9427,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="82" customFormat="1" ht="40.5">
+    <row r="43" spans="1:20" s="82" customFormat="1" ht="40.5" hidden="1">
       <c r="A43" s="82">
         <v>41</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="74" customFormat="1" ht="67.5">
+    <row r="44" spans="1:20" s="74" customFormat="1" ht="67.5" hidden="1">
       <c r="A44" s="82">
         <v>42</v>
       </c>
@@ -9510,7 +9519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="74" customFormat="1" ht="40.5">
+    <row r="45" spans="1:20" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A45" s="82">
         <v>43</v>
       </c>
@@ -9554,7 +9563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="74" customFormat="1" ht="40.5">
+    <row r="46" spans="1:20" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A46" s="82">
         <v>44</v>
       </c>
@@ -9596,7 +9605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="74" customFormat="1" ht="40.5">
+    <row r="47" spans="1:20" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A47" s="82">
         <v>45</v>
       </c>
@@ -9638,7 +9647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="74" customFormat="1" ht="40.5">
+    <row r="48" spans="1:20" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A48" s="82">
         <v>46</v>
       </c>
@@ -9682,7 +9691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="74" customFormat="1">
+    <row r="49" spans="1:17" s="74" customFormat="1" hidden="1">
       <c r="A49" s="82">
         <v>47</v>
       </c>
@@ -9724,7 +9733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="78" customFormat="1" ht="27">
+    <row r="50" spans="1:17" s="78" customFormat="1" ht="27" hidden="1">
       <c r="A50" s="82">
         <v>48</v>
       </c>
@@ -9767,7 +9776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="54">
+    <row r="51" spans="1:17" ht="54" hidden="1">
       <c r="A51" s="82">
         <v>49</v>
       </c>
@@ -9810,7 +9819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="40.5">
+    <row r="52" spans="1:17" ht="40.5" hidden="1">
       <c r="A52" s="82">
         <v>50</v>
       </c>
@@ -9853,7 +9862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" ht="54">
+    <row r="53" spans="1:17" s="82" customFormat="1" ht="54" hidden="1">
       <c r="A53" s="82">
         <v>51</v>
       </c>
@@ -9891,7 +9900,7 @@
       <c r="P53" s="85"/>
       <c r="Q53" s="83"/>
     </row>
-    <row r="54" spans="1:17" s="74" customFormat="1" ht="40.5">
+    <row r="54" spans="1:17" s="74" customFormat="1" ht="40.5" hidden="1">
       <c r="A54" s="82">
         <v>52</v>
       </c>
@@ -9937,7 +9946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="78" customFormat="1">
+    <row r="55" spans="1:17" s="78" customFormat="1" hidden="1">
       <c r="A55" s="82">
         <v>53</v>
       </c>
@@ -9981,7 +9990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="67.5">
+    <row r="56" spans="1:17" ht="67.5" hidden="1">
       <c r="A56" s="82">
         <v>54</v>
       </c>
@@ -10024,7 +10033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="67.5">
+    <row r="57" spans="1:17" ht="67.5" hidden="1">
       <c r="A57" s="82">
         <v>55</v>
       </c>
@@ -10070,7 +10079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="87" customFormat="1">
+    <row r="58" spans="1:17" s="87" customFormat="1" hidden="1">
       <c r="A58" s="82">
         <v>56</v>
       </c>
@@ -10116,7 +10125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="137" customFormat="1">
+    <row r="59" spans="1:17" s="137" customFormat="1" hidden="1">
       <c r="A59" s="82">
         <v>57</v>
       </c>
@@ -10153,7 +10162,7 @@
       <c r="O59" s="139"/>
       <c r="P59" s="140"/>
     </row>
-    <row r="60" spans="1:17" s="74" customFormat="1" ht="81">
+    <row r="60" spans="1:17" s="74" customFormat="1" ht="81" hidden="1">
       <c r="A60" s="82">
         <v>58</v>
       </c>
@@ -10195,7 +10204,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="78" customFormat="1" ht="81">
+    <row r="61" spans="1:17" s="78" customFormat="1" ht="81" hidden="1">
       <c r="A61" s="82">
         <v>59</v>
       </c>
@@ -10237,7 +10246,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="27">
+    <row r="62" spans="1:17" ht="27" hidden="1">
       <c r="A62" s="82">
         <v>60</v>
       </c>
@@ -10281,7 +10290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="81">
+    <row r="63" spans="1:17" ht="81" hidden="1">
       <c r="A63" s="82">
         <v>61</v>
       </c>
@@ -10327,7 +10336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="94.5">
+    <row r="64" spans="1:17" ht="94.5" hidden="1">
       <c r="A64" s="82">
         <v>62</v>
       </c>
@@ -10371,7 +10380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="27">
+    <row r="65" spans="1:17" ht="27" hidden="1">
       <c r="A65" s="82">
         <v>63</v>
       </c>
@@ -10411,7 +10420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="41" customFormat="1" ht="81">
+    <row r="66" spans="1:17" s="41" customFormat="1" ht="81" hidden="1">
       <c r="A66" s="82">
         <v>64</v>
       </c>
@@ -10453,7 +10462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="82" customFormat="1" ht="27">
+    <row r="67" spans="1:17" s="82" customFormat="1" ht="27" hidden="1">
       <c r="A67" s="82">
         <v>65</v>
       </c>
@@ -10493,7 +10502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="74" customFormat="1" ht="94.5">
+    <row r="68" spans="1:17" s="74" customFormat="1" ht="94.5" hidden="1">
       <c r="A68" s="82">
         <v>66</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="74" customFormat="1" ht="27">
+    <row r="69" spans="1:17" s="74" customFormat="1" ht="27" hidden="1">
       <c r="A69" s="82">
         <v>67</v>
       </c>
@@ -10575,7 +10584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="78" customFormat="1" ht="40.5">
+    <row r="70" spans="1:17" s="78" customFormat="1" ht="40.5" hidden="1">
       <c r="A70" s="82">
         <v>68</v>
       </c>
@@ -10620,7 +10629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="135">
+    <row r="71" spans="1:17" ht="135" hidden="1">
       <c r="A71" s="82">
         <v>69</v>
       </c>
@@ -10664,7 +10673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="121.5">
+    <row r="72" spans="1:17" ht="121.5" hidden="1">
       <c r="A72" s="82">
         <v>70</v>
       </c>
@@ -10708,7 +10717,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="41" customFormat="1" ht="27">
+    <row r="73" spans="1:17" s="41" customFormat="1" ht="27" hidden="1">
       <c r="A73" s="82">
         <v>71</v>
       </c>
@@ -10752,7 +10761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="67.5">
+    <row r="74" spans="1:17" ht="67.5" hidden="1">
       <c r="A74" s="82">
         <v>72</v>
       </c>
@@ -10798,7 +10807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" s="82">
         <v>73</v>
       </c>
@@ -10839,7 +10848,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="81">
+    <row r="76" spans="1:17" ht="81" hidden="1">
       <c r="A76" s="82">
         <v>74</v>
       </c>
@@ -10882,7 +10891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="27">
+    <row r="77" spans="1:17" ht="27" hidden="1">
       <c r="A77" s="82">
         <v>75</v>
       </c>
@@ -10926,7 +10935,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="67.5">
+    <row r="78" spans="1:17" ht="67.5" hidden="1">
       <c r="A78" s="82">
         <v>76</v>
       </c>
@@ -10969,7 +10978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="81">
+    <row r="79" spans="1:17" ht="81" hidden="1">
       <c r="A79" s="82">
         <v>77</v>
       </c>
@@ -11015,7 +11024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="40.5">
+    <row r="80" spans="1:17" ht="40.5" hidden="1">
       <c r="A80" s="82">
         <v>78</v>
       </c>
@@ -11103,7 +11112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:17" s="41" customFormat="1" ht="27">
+    <row r="82" spans="1:17" s="41" customFormat="1" ht="27" hidden="1">
       <c r="A82" s="82">
         <v>80</v>
       </c>
@@ -11144,7 +11153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="67.5">
+    <row r="83" spans="1:17" ht="67.5" hidden="1">
       <c r="A83" s="82">
         <v>81</v>
       </c>
@@ -11187,7 +11196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="27">
+    <row r="84" spans="1:17" ht="27" hidden="1">
       <c r="A84" s="82">
         <v>82</v>
       </c>
@@ -11233,7 +11242,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="40.5">
+    <row r="85" spans="1:17" ht="40.5" hidden="1">
       <c r="A85" s="82">
         <v>83</v>
       </c>
@@ -11274,7 +11283,7 @@
       </c>
       <c r="Q85" s="110"/>
     </row>
-    <row r="86" spans="1:17" s="41" customFormat="1" ht="243">
+    <row r="86" spans="1:17" s="41" customFormat="1" ht="243" hidden="1">
       <c r="A86" s="82">
         <v>84</v>
       </c>
@@ -11320,7 +11329,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="27">
+    <row r="87" spans="1:17" ht="27" hidden="1">
       <c r="A87" s="82">
         <v>85</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="54">
+    <row r="88" spans="1:17" ht="54" hidden="1">
       <c r="A88" s="82">
         <v>86</v>
       </c>
@@ -11406,7 +11415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="40.5">
+    <row r="89" spans="1:17" ht="40.5" hidden="1">
       <c r="A89" s="82">
         <v>87</v>
       </c>
@@ -11448,7 +11457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="27">
+    <row r="90" spans="1:17" ht="27" hidden="1">
       <c r="A90" s="82">
         <v>88</v>
       </c>
@@ -11490,7 +11499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" s="82">
         <v>89</v>
       </c>
@@ -11534,7 +11543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="67.5">
+    <row r="92" spans="1:17" ht="67.5" hidden="1">
       <c r="A92" s="82">
         <v>90</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="54">
+    <row r="93" spans="1:17" ht="54" hidden="1">
       <c r="A93" s="82">
         <v>91</v>
       </c>
@@ -11620,7 +11629,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="54">
+    <row r="94" spans="1:17" ht="54" hidden="1">
       <c r="A94" s="82">
         <v>92</v>
       </c>
@@ -11663,7 +11672,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="40.5">
+    <row r="95" spans="1:17" ht="40.5" hidden="1">
       <c r="A95" s="82">
         <v>93</v>
       </c>
@@ -11705,7 +11714,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="41" customFormat="1" ht="94.5">
+    <row r="96" spans="1:17" s="41" customFormat="1" ht="94.5" hidden="1">
       <c r="A96" s="82">
         <v>94</v>
       </c>
@@ -11746,7 +11755,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="41" customFormat="1" ht="67.5">
+    <row r="97" spans="1:17" s="41" customFormat="1" ht="67.5" hidden="1">
       <c r="A97" s="82">
         <v>95</v>
       </c>
@@ -11787,7 +11796,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="40.5">
+    <row r="98" spans="1:17" ht="40.5" hidden="1">
       <c r="A98" s="82">
         <v>96</v>
       </c>
@@ -11826,7 +11835,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="27">
+    <row r="99" spans="1:17" ht="27" hidden="1">
       <c r="A99" s="82">
         <v>97</v>
       </c>
@@ -11853,7 +11862,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="135">
+    <row r="100" spans="1:17" ht="135" hidden="1">
       <c r="A100" s="82">
         <v>98</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="81">
+    <row r="101" spans="1:17" ht="81" hidden="1">
       <c r="A101" s="82">
         <v>99</v>
       </c>
@@ -11910,7 +11919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="27">
+    <row r="102" spans="1:17" ht="27" hidden="1">
       <c r="A102" s="82">
         <v>100</v>
       </c>
@@ -11967,6 +11976,15 @@
       <c r="H103" s="42" t="s">
         <v>341</v>
       </c>
+      <c r="M103" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="P103" s="58">
+        <v>42845</v>
+      </c>
+      <c r="Q103" s="86" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="104" spans="1:17" ht="54">
       <c r="A104" s="82">
@@ -12093,7 +12111,12 @@
   </sheetData>
   <autoFilter ref="A2:Q107">
     <filterColumn colId="4"/>
-    <filterColumn colId="9"/>
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="待测"/>
+        <filter val="待深测"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="16"/>
   </autoFilter>
